--- a/Znode9X/TestData/testdata.xlsx
+++ b/Znode9X/TestData/testdata.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="5985" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15990" windowHeight="7545" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestSuite" sheetId="2" r:id="rId1"/>
     <sheet name="TestCases" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -53,9 +53,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>SaleOrderLineTest</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -89,21 +86,12 @@
     <t>Click on Add New option in Products Page</t>
   </si>
   <si>
-    <t>//a[@class='btn-text-icon']</t>
-  </si>
-  <si>
     <t>Enter Product Name in Add Product page</t>
   </si>
   <si>
     <t>SendKeys</t>
   </si>
   <si>
-    <t>//input[@id='ProductName_11_0_0_1_attr']</t>
-  </si>
-  <si>
-    <t>//a[@id='20']</t>
-  </si>
-  <si>
     <t>Apple</t>
   </si>
   <si>
@@ -116,7 +104,19 @@
     <t>admin12345</t>
   </si>
   <si>
-    <t>//i[@class='z-nav-menu']</t>
+    <t>Znode9X.menu.menu</t>
+  </si>
+  <si>
+    <t>Znode9X.menu.products</t>
+  </si>
+  <si>
+    <t>Znode9X.menu.enterproductname</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Znode9X.menu.addnewoption</t>
   </si>
 </sst>
 </file>
@@ -562,7 +562,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -589,7 +589,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
@@ -600,10 +600,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -666,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -690,13 +690,13 @@
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>1</v>
@@ -714,18 +714,18 @@
         <v>6</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="13">
         <v>1</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>2</v>
@@ -734,16 +734,16 @@
         <v>8</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J2" s="14" t="s">
         <v>8</v>
@@ -751,19 +751,19 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="5">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>8</v>
@@ -783,19 +783,19 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="5">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>8</v>
@@ -815,19 +815,19 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="5">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>8</v>
@@ -847,22 +847,22 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="5">
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>8</v>
